--- a/Team-Data/2013-14/3-27-2013-14.xlsx
+++ b/Team-Data/2013-14/3-27-2013-14.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,43 +733,43 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2" t="n">
         <v>31</v>
       </c>
       <c r="F2" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2" t="n">
-        <v>0.437</v>
+        <v>0.443</v>
       </c>
       <c r="H2" t="n">
         <v>48.4</v>
       </c>
       <c r="I2" t="n">
-        <v>37.3</v>
+        <v>37.4</v>
       </c>
       <c r="J2" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L2" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="M2" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="N2" t="n">
-        <v>0.37</v>
+        <v>0.372</v>
       </c>
       <c r="O2" t="n">
         <v>16.9</v>
       </c>
       <c r="P2" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="Q2" t="n">
         <v>0.781</v>
@@ -717,13 +784,13 @@
         <v>39.9</v>
       </c>
       <c r="U2" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="V2" t="n">
         <v>15.4</v>
       </c>
       <c r="W2" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="X2" t="n">
         <v>4.1</v>
@@ -738,13 +805,13 @@
         <v>19.8</v>
       </c>
       <c r="AB2" t="n">
-        <v>101</v>
+        <v>101.2</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1.3</v>
+        <v>-1.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="AE2" t="n">
         <v>19</v>
@@ -756,7 +823,7 @@
         <v>19</v>
       </c>
       <c r="AH2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI2" t="n">
         <v>18</v>
@@ -768,19 +835,19 @@
         <v>11</v>
       </c>
       <c r="AL2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM2" t="n">
         <v>2</v>
       </c>
       <c r="AN2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AO2" t="n">
         <v>19</v>
       </c>
       <c r="AP2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ2" t="n">
         <v>6</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-27-2013-14</t>
+          <t>2014-03-27</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-4.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE3" t="n">
         <v>26</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-27-2013-14</t>
+          <t>2014-03-27</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-0.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE4" t="n">
         <v>14</v>
@@ -1177,7 +1244,7 @@
         <v>22</v>
       </c>
       <c r="BA4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB4" t="n">
         <v>21</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-27-2013-14</t>
+          <t>2014-03-27</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-1.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE5" t="n">
         <v>16</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-27-2013-14</t>
+          <t>2014-03-27</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>1.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE6" t="n">
         <v>12</v>
@@ -1493,7 +1560,7 @@
         <v>27</v>
       </c>
       <c r="AK6" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AL6" t="n">
         <v>27</v>
@@ -1529,7 +1596,7 @@
         <v>20</v>
       </c>
       <c r="AW6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX6" t="n">
         <v>7</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-27-2013-14</t>
+          <t>2014-03-27</t>
         </is>
       </c>
     </row>
@@ -1720,7 +1787,7 @@
         <v>27</v>
       </c>
       <c r="AZ7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA7" t="n">
         <v>25</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-27-2013-14</t>
+          <t>2014-03-27</t>
         </is>
       </c>
     </row>
@@ -1758,25 +1825,25 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E8" t="n">
         <v>43</v>
       </c>
       <c r="F8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" t="n">
-        <v>0.589</v>
+        <v>0.597</v>
       </c>
       <c r="H8" t="n">
         <v>48.3</v>
       </c>
       <c r="I8" t="n">
-        <v>39.5</v>
+        <v>39.6</v>
       </c>
       <c r="J8" t="n">
-        <v>83.59999999999999</v>
+        <v>83.7</v>
       </c>
       <c r="K8" t="n">
         <v>0.473</v>
@@ -1788,16 +1855,16 @@
         <v>22.7</v>
       </c>
       <c r="N8" t="n">
-        <v>0.384</v>
+        <v>0.382</v>
       </c>
       <c r="O8" t="n">
         <v>17.2</v>
       </c>
       <c r="P8" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.797</v>
+        <v>0.798</v>
       </c>
       <c r="R8" t="n">
         <v>10.2</v>
@@ -1812,7 +1879,7 @@
         <v>23.6</v>
       </c>
       <c r="V8" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="W8" t="n">
         <v>8.800000000000001</v>
@@ -1827,28 +1894,28 @@
         <v>20.3</v>
       </c>
       <c r="AA8" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.9</v>
+        <v>105</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
       </c>
       <c r="AF8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
@@ -1863,7 +1930,7 @@
         <v>8</v>
       </c>
       <c r="AM8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN8" t="n">
         <v>4</v>
@@ -1884,7 +1951,7 @@
         <v>24</v>
       </c>
       <c r="AT8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU8" t="n">
         <v>5</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-27-2013-14</t>
+          <t>2014-03-27</t>
         </is>
       </c>
     </row>
@@ -2018,13 +2085,13 @@
         <v>-2.2</v>
       </c>
       <c r="AD9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE9" t="n">
         <v>18</v>
       </c>
       <c r="AF9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG9" t="n">
         <v>18</v>
@@ -2075,7 +2142,7 @@
         <v>28</v>
       </c>
       <c r="AW9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX9" t="n">
         <v>6</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-27-2013-14</t>
+          <t>2014-03-27</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-2.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2215,13 +2282,13 @@
         <v>18</v>
       </c>
       <c r="AI10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ10" t="n">
         <v>4</v>
       </c>
       <c r="AK10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL10" t="n">
         <v>27</v>
@@ -2266,7 +2333,7 @@
         <v>17</v>
       </c>
       <c r="AZ10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA10" t="n">
         <v>15</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-27-2013-14</t>
+          <t>2014-03-27</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>4.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE11" t="n">
         <v>8</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-27-2013-14</t>
+          <t>2014-03-27</t>
         </is>
       </c>
     </row>
@@ -2486,28 +2553,28 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E12" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F12" t="n">
         <v>22</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="J12" t="n">
-        <v>79.8</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.477</v>
+        <v>0.476</v>
       </c>
       <c r="L12" t="n">
         <v>9.300000000000001</v>
@@ -2528,19 +2595,19 @@
         <v>0.701</v>
       </c>
       <c r="R12" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S12" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="T12" t="n">
-        <v>45</v>
+        <v>44.9</v>
       </c>
       <c r="U12" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="V12" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="W12" t="n">
         <v>7.5</v>
@@ -2558,13 +2625,13 @@
         <v>24.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>107</v>
+        <v>106.8</v>
       </c>
       <c r="AC12" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="AD12" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="AE12" t="n">
         <v>5</v>
@@ -2612,16 +2679,16 @@
         <v>5</v>
       </c>
       <c r="AT12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV12" t="n">
         <v>29</v>
       </c>
       <c r="AW12" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AX12" t="n">
         <v>3</v>
@@ -2636,7 +2703,7 @@
         <v>1</v>
       </c>
       <c r="BB12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC12" t="n">
         <v>5</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-27-2013-14</t>
+          <t>2014-03-27</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>5.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE13" t="n">
         <v>2</v>
@@ -2806,10 +2873,10 @@
         <v>26</v>
       </c>
       <c r="AX13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ13" t="n">
         <v>15</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-27-2013-14</t>
+          <t>2014-03-27</t>
         </is>
       </c>
     </row>
@@ -2850,22 +2917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E14" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F14" t="n">
         <v>22</v>
       </c>
       <c r="G14" t="n">
-        <v>0.699</v>
+        <v>0.694</v>
       </c>
       <c r="H14" t="n">
         <v>48.2</v>
       </c>
       <c r="I14" t="n">
-        <v>39</v>
+        <v>39.1</v>
       </c>
       <c r="J14" t="n">
         <v>82.2</v>
@@ -2880,31 +2947,31 @@
         <v>23.5</v>
       </c>
       <c r="N14" t="n">
-        <v>0.354</v>
+        <v>0.353</v>
       </c>
       <c r="O14" t="n">
         <v>21</v>
       </c>
       <c r="P14" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.73</v>
+        <v>0.728</v>
       </c>
       <c r="R14" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="S14" t="n">
         <v>32.4</v>
       </c>
       <c r="T14" t="n">
-        <v>42.8</v>
+        <v>42.9</v>
       </c>
       <c r="U14" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="V14" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="W14" t="n">
         <v>8.6</v>
@@ -2925,10 +2992,10 @@
         <v>107.4</v>
       </c>
       <c r="AC14" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE14" t="n">
         <v>4</v>
@@ -2940,10 +3007,10 @@
         <v>4</v>
       </c>
       <c r="AH14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ14" t="n">
         <v>21</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-27-2013-14</t>
+          <t>2014-03-27</t>
         </is>
       </c>
     </row>
@@ -3032,52 +3099,52 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E15" t="n">
         <v>24</v>
       </c>
       <c r="F15" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G15" t="n">
-        <v>0.338</v>
+        <v>0.343</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
       </c>
       <c r="I15" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="J15" t="n">
         <v>84.5</v>
       </c>
       <c r="K15" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="L15" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="M15" t="n">
         <v>24.5</v>
       </c>
       <c r="N15" t="n">
-        <v>0.385</v>
+        <v>0.386</v>
       </c>
       <c r="O15" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="P15" t="n">
         <v>22.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.75</v>
+        <v>0.749</v>
       </c>
       <c r="R15" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="S15" t="n">
-        <v>32.1</v>
+        <v>32.2</v>
       </c>
       <c r="T15" t="n">
         <v>41.3</v>
@@ -3086,7 +3153,7 @@
         <v>23.9</v>
       </c>
       <c r="V15" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="W15" t="n">
         <v>7.2</v>
@@ -3098,25 +3165,25 @@
         <v>4.7</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AA15" t="n">
         <v>19.6</v>
       </c>
       <c r="AB15" t="n">
-        <v>102.4</v>
+        <v>102.3</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6</v>
+        <v>-6.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="AE15" t="n">
         <v>25</v>
       </c>
       <c r="AF15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG15" t="n">
         <v>25</v>
@@ -3125,13 +3192,13 @@
         <v>30</v>
       </c>
       <c r="AI15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ15" t="n">
         <v>9</v>
       </c>
       <c r="AK15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL15" t="n">
         <v>3</v>
@@ -3140,7 +3207,7 @@
         <v>6</v>
       </c>
       <c r="AN15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO15" t="n">
         <v>18</v>
@@ -3155,7 +3222,7 @@
         <v>26</v>
       </c>
       <c r="AS15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT15" t="n">
         <v>23</v>
@@ -3164,19 +3231,19 @@
         <v>4</v>
       </c>
       <c r="AV15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AX15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA15" t="n">
         <v>26</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-27-2013-14</t>
+          <t>2014-03-27</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>1.7</v>
       </c>
       <c r="AD16" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE16" t="n">
         <v>9</v>
@@ -3322,7 +3389,7 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO16" t="n">
         <v>30</v>
@@ -3337,7 +3404,7 @@
         <v>13</v>
       </c>
       <c r="AS16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT16" t="n">
         <v>18</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-27-2013-14</t>
+          <t>2014-03-27</t>
         </is>
       </c>
     </row>
@@ -3474,16 +3541,16 @@
         <v>4.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF17" t="n">
         <v>4</v>
       </c>
       <c r="AG17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH17" t="n">
         <v>11</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-27-2013-14</t>
+          <t>2014-03-27</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" t="n">
         <v>58</v>
       </c>
       <c r="G18" t="n">
-        <v>0.194</v>
+        <v>0.183</v>
       </c>
       <c r="H18" t="n">
         <v>48.6</v>
@@ -3596,49 +3663,49 @@
         <v>36</v>
       </c>
       <c r="J18" t="n">
-        <v>82.8</v>
+        <v>83</v>
       </c>
       <c r="K18" t="n">
-        <v>0.435</v>
+        <v>0.434</v>
       </c>
       <c r="L18" t="n">
         <v>7</v>
       </c>
       <c r="M18" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="N18" t="n">
-        <v>0.355</v>
+        <v>0.353</v>
       </c>
       <c r="O18" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="P18" t="n">
-        <v>21.9</v>
+        <v>21.7</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.75</v>
+        <v>0.751</v>
       </c>
       <c r="R18" t="n">
         <v>11.8</v>
       </c>
       <c r="S18" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="T18" t="n">
-        <v>41.1</v>
+        <v>41.2</v>
       </c>
       <c r="U18" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="V18" t="n">
         <v>14.9</v>
       </c>
       <c r="W18" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="X18" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y18" t="n">
         <v>5.2</v>
@@ -3647,16 +3714,16 @@
         <v>21.1</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>95.40000000000001</v>
+        <v>95.3</v>
       </c>
       <c r="AC18" t="n">
-        <v>-8.1</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="AD18" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3674,7 +3741,7 @@
         <v>27</v>
       </c>
       <c r="AJ18" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AK18" t="n">
         <v>26</v>
@@ -3686,25 +3753,25 @@
         <v>21</v>
       </c>
       <c r="AN18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO18" t="n">
         <v>23</v>
       </c>
       <c r="AP18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ18" t="n">
         <v>19</v>
       </c>
       <c r="AR18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS18" t="n">
         <v>29</v>
       </c>
       <c r="AT18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU18" t="n">
         <v>16</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-27-2013-14</t>
+          <t>2014-03-27</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>3.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AE19" t="n">
         <v>16</v>
@@ -3886,7 +3953,7 @@
         <v>12</v>
       </c>
       <c r="AT19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU19" t="n">
         <v>6</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-27-2013-14</t>
+          <t>2014-03-27</t>
         </is>
       </c>
     </row>
@@ -4020,16 +4087,16 @@
         <v>-2.1</v>
       </c>
       <c r="AD20" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE20" t="n">
         <v>19</v>
       </c>
       <c r="AF20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH20" t="n">
         <v>8</v>
@@ -4038,7 +4105,7 @@
         <v>13</v>
       </c>
       <c r="AJ20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK20" t="n">
         <v>9</v>
@@ -4050,7 +4117,7 @@
         <v>29</v>
       </c>
       <c r="AN20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO20" t="n">
         <v>13</v>
@@ -4062,7 +4129,7 @@
         <v>11</v>
       </c>
       <c r="AR20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS20" t="n">
         <v>25</v>
@@ -4071,10 +4138,10 @@
         <v>22</v>
       </c>
       <c r="AU20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW20" t="n">
         <v>12</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-27-2013-14</t>
+          <t>2014-03-27</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-1.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE21" t="n">
         <v>21</v>
@@ -4214,13 +4281,13 @@
         <v>21</v>
       </c>
       <c r="AH21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI21" t="n">
         <v>19</v>
       </c>
       <c r="AJ21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK21" t="n">
         <v>17</v>
@@ -4232,7 +4299,7 @@
         <v>5</v>
       </c>
       <c r="AN21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO21" t="n">
         <v>29</v>
@@ -4250,7 +4317,7 @@
         <v>27</v>
       </c>
       <c r="AT21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU21" t="n">
         <v>26</v>
@@ -4259,7 +4326,7 @@
         <v>2</v>
       </c>
       <c r="AW21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX21" t="n">
         <v>19</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-27-2013-14</t>
+          <t>2014-03-27</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>6.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4396,13 +4463,13 @@
         <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI22" t="n">
         <v>3</v>
       </c>
       <c r="AJ22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK22" t="n">
         <v>6</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-27-2013-14</t>
+          <t>2014-03-27</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-5.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE23" t="n">
         <v>28</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-27-2013-14</t>
+          <t>2014-03-27</t>
         </is>
       </c>
     </row>
@@ -4670,37 +4737,37 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
       </c>
       <c r="F24" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G24" t="n">
-        <v>0.208</v>
+        <v>0.211</v>
       </c>
       <c r="H24" t="n">
         <v>48.5</v>
       </c>
       <c r="I24" t="n">
-        <v>37.6</v>
+        <v>37.7</v>
       </c>
       <c r="J24" t="n">
         <v>87.8</v>
       </c>
       <c r="K24" t="n">
-        <v>0.428</v>
+        <v>0.429</v>
       </c>
       <c r="L24" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M24" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="N24" t="n">
-        <v>0.307</v>
+        <v>0.305</v>
       </c>
       <c r="O24" t="n">
         <v>16.5</v>
@@ -4709,16 +4776,16 @@
         <v>23.2</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.709</v>
+        <v>0.71</v>
       </c>
       <c r="R24" t="n">
         <v>12</v>
       </c>
       <c r="S24" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="T24" t="n">
-        <v>43.4</v>
+        <v>43.5</v>
       </c>
       <c r="U24" t="n">
         <v>21.7</v>
@@ -4736,7 +4803,7 @@
         <v>7.1</v>
       </c>
       <c r="Z24" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AA24" t="n">
         <v>20.7</v>
@@ -4745,10 +4812,10 @@
         <v>98.7</v>
       </c>
       <c r="AC24" t="n">
-        <v>-11.5</v>
+        <v>-11.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AE24" t="n">
         <v>29</v>
@@ -4760,7 +4827,7 @@
         <v>29</v>
       </c>
       <c r="AH24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI24" t="n">
         <v>17</v>
@@ -4769,13 +4836,13 @@
         <v>1</v>
       </c>
       <c r="AK24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL24" t="n">
         <v>20</v>
       </c>
       <c r="AM24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN24" t="n">
         <v>30</v>
@@ -4793,7 +4860,7 @@
         <v>8</v>
       </c>
       <c r="AS24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AT24" t="n">
         <v>12</v>
@@ -4814,7 +4881,7 @@
         <v>30</v>
       </c>
       <c r="AZ24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA24" t="n">
         <v>13</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-27-2013-14</t>
+          <t>2014-03-27</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>2.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE25" t="n">
         <v>9</v>
@@ -4996,7 +5063,7 @@
         <v>8</v>
       </c>
       <c r="AZ25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA25" t="n">
         <v>8</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-27-2013-14</t>
+          <t>2014-03-27</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E26" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F26" t="n">
         <v>27</v>
       </c>
       <c r="G26" t="n">
-        <v>0.63</v>
+        <v>0.625</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
@@ -5052,10 +5119,10 @@
         <v>39</v>
       </c>
       <c r="J26" t="n">
-        <v>87.2</v>
+        <v>87.3</v>
       </c>
       <c r="K26" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L26" t="n">
         <v>9.5</v>
@@ -5067,13 +5134,13 @@
         <v>0.371</v>
       </c>
       <c r="O26" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="P26" t="n">
         <v>23.6</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.819</v>
+        <v>0.82</v>
       </c>
       <c r="R26" t="n">
         <v>12.6</v>
@@ -5088,16 +5155,16 @@
         <v>23.1</v>
       </c>
       <c r="V26" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W26" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="X26" t="n">
         <v>4.7</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Z26" t="n">
         <v>19.5</v>
@@ -5106,13 +5173,13 @@
         <v>20.9</v>
       </c>
       <c r="AB26" t="n">
-        <v>106.8</v>
+        <v>106.9</v>
       </c>
       <c r="AC26" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE26" t="n">
         <v>7</v>
@@ -5136,13 +5203,13 @@
         <v>19</v>
       </c>
       <c r="AL26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM26" t="n">
         <v>3</v>
       </c>
       <c r="AN26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO26" t="n">
         <v>7</v>
@@ -5166,7 +5233,7 @@
         <v>8</v>
       </c>
       <c r="AV26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW26" t="n">
         <v>30</v>
@@ -5181,10 +5248,10 @@
         <v>7</v>
       </c>
       <c r="BA26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC26" t="n">
         <v>8</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-27-2013-14</t>
+          <t>2014-03-27</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-2.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
@@ -5306,7 +5373,7 @@
         <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI27" t="n">
         <v>20</v>
@@ -5339,7 +5406,7 @@
         <v>6</v>
       </c>
       <c r="AS27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-27-2013-14</t>
+          <t>2014-03-27</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>7.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5494,7 +5561,7 @@
         <v>1</v>
       </c>
       <c r="AJ28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-27-2013-14</t>
+          <t>2014-03-27</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>3.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE29" t="n">
         <v>12</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-27-2013-14</t>
+          <t>2014-03-27</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-6.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AE30" t="n">
         <v>26</v>
@@ -5876,7 +5943,7 @@
         <v>25</v>
       </c>
       <c r="AP30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ30" t="n">
         <v>23</v>
@@ -5888,7 +5955,7 @@
         <v>26</v>
       </c>
       <c r="AT30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU30" t="n">
         <v>28</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-27-2013-14</t>
+          <t>2014-03-27</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>0.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AE31" t="n">
         <v>15</v>
@@ -6052,7 +6119,7 @@
         <v>18</v>
       </c>
       <c r="AN31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO31" t="n">
         <v>28</v>
@@ -6067,7 +6134,7 @@
         <v>16</v>
       </c>
       <c r="AS31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT31" t="n">
         <v>20</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-27-2013-14</t>
+          <t>2014-03-27</t>
         </is>
       </c>
     </row>
